--- a/input.xlsx
+++ b/input.xlsx
@@ -15621,4 +15621,264 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100572779039942754A9224B588C3B1C098" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cb95df8199dc4e794ecf8b94009377a4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="18f9414c-abae-42e0-99a8-e64357ee6571" xmlns:ns3="44591b31-bf30-4ebb-aba4-12610cac5ed3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="165b9258c34c4689f243a27732786f57" ns2:_="" ns3:_="">
+    <xsd:import namespace="18f9414c-abae-42e0-99a8-e64357ee6571"/>
+    <xsd:import namespace="44591b31-bf30-4ebb-aba4-12610cac5ed3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="18f9414c-abae-42e0-99a8-e64357ee6571" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="14" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="6b0e9680-8da3-4b8d-b9d5-0aa7c668e843" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="21" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="22" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="44591b31-bf30-4ebb-aba4-12610cac5ed3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{79bf5c6b-bacb-453c-9fd5-15af32b9c3dc}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="44591b31-bf30-4ebb-aba4-12610cac5ed3">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C87ACCAB-535A-4252-BD52-15CC11911680}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EE985A3-9179-48B9-8813-F84CB5903BA8}"/>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chener-ext\Desktop\script-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ldcom365.sharepoint.com/sites/GRP-NavigatorProject/Shared Documents/General/项目管理/Intern/Erdong/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97784E32-529E-4AA8-A701-042FA37A7C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{97784E32-529E-4AA8-A701-042FA37A7C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15A890AA-972C-4768-A7ED-0C86E3C841DC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51AF7873-43BB-4E0F-89E4-B49A429A1F0D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{51AF7873-43BB-4E0F-89E4-B49A429A1F0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4150,12 +4150,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D0158F-E870-4B34-91B3-1E57688CB4E1}">
   <dimension ref="A1:O258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="9" max="9" width="31.125" customWidth="1"/>
     <col min="10" max="10" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15620,10 +15621,20 @@
     <hyperlink ref="B258" r:id="rId514" display="https://www.tapd.cn/fastapp/jump.php?target=https%3A%2F%2Fwww.tapd.cn%2F55989309%2Fprong%2Fstories%2Fview%2F1155989309001001488%3Fjump_count%3D1" xr:uid="{8AFBF899-8DBF-4F6A-ACD7-4D7BF2484083}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId515"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100572779039942754A9224B588C3B1C098" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cb95df8199dc4e794ecf8b94009377a4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="18f9414c-abae-42e0-99a8-e64357ee6571" xmlns:ns3="44591b31-bf30-4ebb-aba4-12610cac5ed3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="165b9258c34c4689f243a27732786f57" ns2:_="" ns3:_="">
     <xsd:import namespace="18f9414c-abae-42e0-99a8-e64357ee6571"/>
@@ -15866,19 +15877,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C87ACCAB-535A-4252-BD52-15CC11911680}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EE985A3-9179-48B9-8813-F84CB5903BA8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EE985A3-9179-48B9-8813-F84CB5903BA8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C87ACCAB-535A-4252-BD52-15CC11911680}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="18f9414c-abae-42e0-99a8-e64357ee6571"/>
+    <ds:schemaRef ds:uri="44591b31-bf30-4ebb-aba4-12610cac5ed3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>